--- a/gaze_accuracy.xlsx
+++ b/gaze_accuracy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovro\Desktop\BagOfLies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovro\OneDrive\Documents\GitHub\BagOfLies_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E56A01B-D93C-4AFD-B70A-02985405A9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18D3F96-0958-44C9-B01A-EDC0EC73910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>accuracy</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>max_depth</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>gaze_df_1 se koristi od sad</t>
@@ -379,27 +376,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -407,7 +401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.555964325529543</v>
       </c>
@@ -421,16 +415,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.56529230769230698</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
-      <c r="C3" s="1">
-        <v>3245.9639999999999</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3">
         <v>500</v>
       </c>
@@ -438,26 +430,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.57169230769230694</v>
       </c>
       <c r="B8">
         <v>250</v>
       </c>
-      <c r="C8" s="1">
-        <v>1002.304</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8">
         <v>300</v>
       </c>
       <c r="F8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.57169755946864298</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.56998278890059595</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.57111111111111101</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.575824175824175</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.58439869989165705</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
